--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
@@ -40,7 +40,7 @@
     <t>MPI-ESM-1-2-HAM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean Biogeochemistry</t>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Tracers" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="426">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1280,12 +1280,27 @@
   </si>
   <si>
     <t>Diagnostic)</t>
+  </si>
+  <si>
+    <t>HAMOCC6</t>
+  </si>
+  <si>
+    <t>Mauritsen_2019</t>
+  </si>
+  <si>
+    <t>Ilyina_2013</t>
+  </si>
+  <si>
+    <t>Paulsen_2017</t>
+  </si>
+  <si>
+    <t>For a description of the ocean biogeochemistry model HAMOCC6 see Mauritsen et al. (2019), Ilyina et al. (2013) and Paulsen et al. (2017).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1482,6 +1497,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1560,6 +1580,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1594,6 +1615,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1769,10 +1791,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1781,12 +1803,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1826,12 +1848,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +1869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +1877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1863,13 +1885,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1885,10 +1907,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1897,7 +1921,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1908,7 +1932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1924,7 +1948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1932,11 +1956,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1952,7 +1976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1960,16 +1984,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19">
       <formula1>"Top Level,Key Properties,Tracers"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1982,10 +2020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD235"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2028,7 +2068,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2081,8 +2123,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -2471,7 +2515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="178" customHeight="1">
+    <row r="84" spans="1:29" ht="177.95" customHeight="1">
       <c r="B84" s="11"/>
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
@@ -3226,7 +3270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="178" customHeight="1">
+    <row r="220" spans="1:3" ht="177.95" customHeight="1">
       <c r="B220" s="11"/>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
@@ -3390,8 +3434,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3462,7 +3506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Tracers" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="423">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -142,6 +142,9 @@
     <t>cmip6.ocnbgchem.key_properties.name</t>
   </si>
   <si>
+    <t>HAMOCC6</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>For a description of the ocean biogeochemistry model HAMOCC6 see Mauritsen et al. (2019), Ilyina et al. (2013) and Paulsen et al. (2017).</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -187,13 +193,13 @@
     <t>cmip6.ocnbgchem.key_properties.model_type</t>
   </si>
   <si>
-    <t>Geochemical</t>
-  </si>
-  <si>
-    <t>NPZD</t>
-  </si>
-  <si>
-    <t>PFT</t>
+    <t>Geochemical: No living compartments</t>
+  </si>
+  <si>
+    <t>NPZD: No plankton types</t>
+  </si>
+  <si>
+    <t>PFT: Several plankton types</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -211,13 +217,13 @@
     <t>cmip6.ocnbgchem.key_properties.elemental_stoichiometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Mix of both</t>
+    <t>Fixed: Fixed stoichiometry</t>
+  </si>
+  <si>
+    <t>Variable: Variable stoichiometry</t>
+  </si>
+  <si>
+    <t>Mix of both: Both fixed and mixed stoichiometry</t>
   </si>
   <si>
     <t>1.1.1.6 *</t>
@@ -289,10 +295,10 @@
     <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.passive_tracers_transport.method</t>
   </si>
   <si>
-    <t>Use ocean model transport time step</t>
-  </si>
-  <si>
-    <t>Use specific time step</t>
+    <t>use ocean model transport time step</t>
+  </si>
+  <si>
+    <t>use specific time step</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.2.2 </t>
@@ -412,13 +418,13 @@
     <t>cmip6.ocnbgchem.key_properties.boundary_forcing.atmospheric_deposition</t>
   </si>
   <si>
-    <t>From file (climatology)</t>
-  </si>
-  <si>
-    <t>From file (interannual variations)</t>
-  </si>
-  <si>
-    <t>From Atmospheric Chemistry model</t>
+    <t>from file (climatology)</t>
+  </si>
+  <si>
+    <t>from file (interannual variations)</t>
+  </si>
+  <si>
+    <t>from Atmospheric Chemistry model</t>
   </si>
   <si>
     <t>1.3.1.2 *</t>
@@ -433,7 +439,7 @@
     <t>cmip6.ocnbgchem.key_properties.boundary_forcing.river_input</t>
   </si>
   <si>
-    <t>From Land Surface model</t>
+    <t>from Land Surface model</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.3 </t>
@@ -991,7 +997,7 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>PFT including size based (specify both below)</t>
+    <t>PFT including size based (specify both below): Plankton functional type including size based</t>
   </si>
   <si>
     <t>Size based only (specify below)</t>
@@ -1111,13 +1117,13 @@
     <t>cmip6.ocnbgchem.tracers.disolved_organic_matter.lability</t>
   </si>
   <si>
-    <t>Labile</t>
-  </si>
-  <si>
-    <t>Semi-labile</t>
-  </si>
-  <si>
-    <t>Refractory</t>
+    <t>Labile: Less than a few days</t>
+  </si>
+  <si>
+    <t>Semi-labile: Few days to a few years</t>
+  </si>
+  <si>
+    <t>Refractory: Over a few years</t>
   </si>
   <si>
     <t>2.4.1</t>
@@ -1280,27 +1286,12 @@
   </si>
   <si>
     <t>Diagnostic)</t>
-  </si>
-  <si>
-    <t>HAMOCC6</t>
-  </si>
-  <si>
-    <t>Mauritsen_2019</t>
-  </si>
-  <si>
-    <t>Ilyina_2013</t>
-  </si>
-  <si>
-    <t>Paulsen_2017</t>
-  </si>
-  <si>
-    <t>For a description of the ocean biogeochemistry model HAMOCC6 see Mauritsen et al. (2019), Ilyina et al. (2013) and Paulsen et al. (2017).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1497,11 +1488,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1580,7 +1566,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1615,7 +1600,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1791,10 +1775,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1803,12 +1787,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1816,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1848,12 +1832,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1861,7 +1845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1869,7 +1853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1877,7 +1861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1885,13 +1869,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="20.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1907,12 +1891,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1921,7 +1903,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +1914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1948,7 +1930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1956,11 +1938,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1976,7 +1958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1984,30 +1966,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11" t="s">
-        <v>422</v>
-      </c>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B19" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Top Level,Key Properties,Tracers"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2020,1422 +1988,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD235"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="AA20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="AA24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="B28" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="B29" s="11"/>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" ht="24" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
-      <c r="AA51" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB51" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="24" customHeight="1">
-      <c r="A54" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-    </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="70" spans="1:28" ht="24" customHeight="1">
-      <c r="A70" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" ht="24" customHeight="1">
-      <c r="B71" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-      <c r="AA75" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB75" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-      <c r="AA79" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB79" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="24" customHeight="1">
-      <c r="B83" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="177.95" customHeight="1">
-      <c r="B84" s="11"/>
-    </row>
-    <row r="87" spans="1:29" ht="24" customHeight="1">
-      <c r="A87" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" ht="24" customHeight="1">
-      <c r="B88" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
-      <c r="AA92" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB92" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC92" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" ht="24" customHeight="1">
-      <c r="A95" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-      <c r="AA96" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB96" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC96" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="11"/>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" ht="24" customHeight="1">
-      <c r="A113" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
-    </row>
-    <row r="116" spans="1:28" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="24" customHeight="1">
-      <c r="A117" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
-      <c r="AA118" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB118" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:28" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-      <c r="AA126" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB126" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="11"/>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="A161" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="B166" s="11"/>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="A169" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="172" spans="1:3" ht="24" customHeight="1">
-      <c r="A172" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="11"/>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="24" customHeight="1">
-      <c r="B178" s="11"/>
-    </row>
-    <row r="180" spans="1:3" ht="24" customHeight="1">
-      <c r="A180" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="24" customHeight="1">
-      <c r="A181" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="24" customHeight="1">
-      <c r="B182" s="11"/>
-    </row>
-    <row r="184" spans="1:3" ht="24" customHeight="1">
-      <c r="A184" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="24" customHeight="1">
-      <c r="A185" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="24" customHeight="1">
-      <c r="B186" s="11"/>
-    </row>
-    <row r="188" spans="1:3" ht="24" customHeight="1">
-      <c r="A188" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="24" customHeight="1">
-      <c r="A189" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="24" customHeight="1">
-      <c r="B190" s="11"/>
-    </row>
-    <row r="192" spans="1:3" ht="24" customHeight="1">
-      <c r="A192" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29" ht="24" customHeight="1">
-      <c r="A193" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="194" spans="1:29" ht="24" customHeight="1">
-      <c r="B194" s="11"/>
-    </row>
-    <row r="197" spans="1:29" ht="24" customHeight="1">
-      <c r="A197" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29" ht="24" customHeight="1">
-      <c r="B198" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29" ht="24" customHeight="1">
-      <c r="A200" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29" ht="24" customHeight="1">
-      <c r="A201" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29" ht="24" customHeight="1">
-      <c r="B202" s="11"/>
-      <c r="AA202" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB202" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" ht="24" customHeight="1">
-      <c r="A204" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29" ht="24" customHeight="1">
-      <c r="A205" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29" ht="24" customHeight="1">
-      <c r="B206" s="11"/>
-      <c r="AA206" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB206" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC206" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29" ht="24" customHeight="1">
-      <c r="A208" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="24" customHeight="1">
-      <c r="A209" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="24" customHeight="1">
-      <c r="B210" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="24" customHeight="1">
-      <c r="B211" s="11"/>
-    </row>
-    <row r="214" spans="1:3" ht="24" customHeight="1">
-      <c r="A214" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="24" customHeight="1">
-      <c r="B215" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="24" customHeight="1">
-      <c r="A217" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="24" customHeight="1">
-      <c r="A218" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="24" customHeight="1">
-      <c r="B219" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="177.95" customHeight="1">
-      <c r="B220" s="11"/>
-    </row>
-    <row r="222" spans="1:3" ht="24" customHeight="1">
-      <c r="A222" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="24" customHeight="1">
-      <c r="A223" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="24" customHeight="1">
-      <c r="B224" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="24" customHeight="1">
-      <c r="B225" s="11"/>
-    </row>
-    <row r="227" spans="1:3" ht="24" customHeight="1">
-      <c r="A227" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="24" customHeight="1">
-      <c r="A228" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B228" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="24" customHeight="1">
-      <c r="B229" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="24" customHeight="1">
-      <c r="B230" s="11"/>
-    </row>
-    <row r="232" spans="1:3" ht="24" customHeight="1">
-      <c r="A232" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="24" customHeight="1">
-      <c r="A233" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B233" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="24" customHeight="1">
-      <c r="B234" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="24" customHeight="1">
-      <c r="B235" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>AA20:AD20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AC24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>AA51:AB51</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AB63</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>AA75:AB75</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AB79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
-      <formula1>AA92:AC92</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
-      <formula1>AA96:AC96</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
-      <formula1>AA118:AB118</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
-      <formula1>AA126:AB126</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B130">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B154">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B170">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B178">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B202">
-      <formula1>AA202:AB202</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B206">
-      <formula1>AA206:AC206</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3449,20 +2003,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>273</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>37</v>
@@ -3473,21 +2027,23 @@
         <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3495,37 +2051,1447 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>280</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>282</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="178" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="24" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="AA20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="24" customHeight="1">
+      <c r="B24" s="11"/>
+      <c r="AA24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
+      <c r="A27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="24" customHeight="1">
+      <c r="B28" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="B33" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="24" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+      <c r="AA51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="24" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="24" customHeight="1">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="58" spans="1:28" ht="24" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="24" customHeight="1">
+      <c r="B59" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="24" customHeight="1">
+      <c r="B63" s="11"/>
+      <c r="AA63" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="24" customHeight="1">
+      <c r="B67" s="11"/>
+    </row>
+    <row r="70" spans="1:28" ht="24" customHeight="1">
+      <c r="A70" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="24" customHeight="1">
+      <c r="B71" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="24" customHeight="1">
+      <c r="B75" s="11"/>
+      <c r="AA75" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="24" customHeight="1">
+      <c r="B79" s="11"/>
+      <c r="AA79" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="24" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="24" customHeight="1">
+      <c r="A82" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="24" customHeight="1">
+      <c r="B83" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="178" customHeight="1">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="87" spans="1:29" ht="24" customHeight="1">
+      <c r="A87" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="24" customHeight="1">
+      <c r="B88" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="24" customHeight="1">
+      <c r="B92" s="11"/>
+      <c r="AA92" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB92" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC92" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="24" customHeight="1">
+      <c r="A94" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="24" customHeight="1">
+      <c r="A95" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="24" customHeight="1">
+      <c r="B96" s="11"/>
+      <c r="AA96" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB96" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="B100" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="11"/>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
         <v>152</v>
       </c>
+      <c r="B112" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="24" customHeight="1">
+      <c r="A113" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="24" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="116" spans="1:28" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="24" customHeight="1">
+      <c r="A117" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="24" customHeight="1">
+      <c r="B118" s="11"/>
+      <c r="AA118" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB118" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="24" customHeight="1">
+      <c r="A121" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="24" customHeight="1">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="124" spans="1:28" ht="24" customHeight="1">
+      <c r="A124" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" ht="24" customHeight="1">
+      <c r="A125" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" ht="24" customHeight="1">
+      <c r="B126" s="11"/>
+      <c r="AA126" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB126" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" ht="24" customHeight="1">
+      <c r="A128" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24" customHeight="1">
+      <c r="A129" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1">
+      <c r="A132" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24" customHeight="1">
+      <c r="A133" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="B134" s="11"/>
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="A136" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="24" customHeight="1">
+      <c r="A137" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="B138" s="11"/>
+    </row>
+    <row r="140" spans="1:3" ht="24" customHeight="1">
+      <c r="A140" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="A141" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="24" customHeight="1">
+      <c r="A145" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="B146" s="11"/>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="A148" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="A149" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="B150" s="11"/>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="A152" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="A153" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24" customHeight="1">
+      <c r="B154" s="11"/>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="A156" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24" customHeight="1">
+      <c r="A157" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1">
+      <c r="A160" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="24" customHeight="1">
+      <c r="A161" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="B162" s="11"/>
+    </row>
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="A164" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1">
+      <c r="A165" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
+      <c r="B166" s="11"/>
+    </row>
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="A168" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="24" customHeight="1">
+      <c r="A169" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="24" customHeight="1">
+      <c r="B170" s="11"/>
+    </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="A172" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="A173" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24" customHeight="1">
+      <c r="B174" s="11"/>
+    </row>
+    <row r="176" spans="1:3" ht="24" customHeight="1">
+      <c r="A176" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="24" customHeight="1">
+      <c r="A177" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="24" customHeight="1">
+      <c r="B178" s="11"/>
+    </row>
+    <row r="180" spans="1:3" ht="24" customHeight="1">
+      <c r="A180" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="24" customHeight="1">
+      <c r="A181" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="24" customHeight="1">
+      <c r="B182" s="11"/>
+    </row>
+    <row r="184" spans="1:3" ht="24" customHeight="1">
+      <c r="A184" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="24" customHeight="1">
+      <c r="A185" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="24" customHeight="1">
+      <c r="B186" s="11"/>
+    </row>
+    <row r="188" spans="1:3" ht="24" customHeight="1">
+      <c r="A188" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="24" customHeight="1">
+      <c r="A189" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="24" customHeight="1">
+      <c r="B190" s="11"/>
+    </row>
+    <row r="192" spans="1:3" ht="24" customHeight="1">
+      <c r="A192" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" ht="24" customHeight="1">
+      <c r="A193" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" ht="24" customHeight="1">
+      <c r="B194" s="11"/>
+    </row>
+    <row r="197" spans="1:29" ht="24" customHeight="1">
+      <c r="A197" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" ht="24" customHeight="1">
+      <c r="B198" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" ht="24" customHeight="1">
+      <c r="A200" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" ht="24" customHeight="1">
+      <c r="A201" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" ht="24" customHeight="1">
+      <c r="B202" s="11"/>
+      <c r="AA202" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB202" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" ht="24" customHeight="1">
+      <c r="A204" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" ht="24" customHeight="1">
+      <c r="A205" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" ht="24" customHeight="1">
+      <c r="B206" s="11"/>
+      <c r="AA206" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB206" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC206" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" ht="24" customHeight="1">
+      <c r="A208" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="24" customHeight="1">
+      <c r="A209" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="24" customHeight="1">
+      <c r="B210" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="24" customHeight="1">
+      <c r="B211" s="11"/>
+    </row>
+    <row r="214" spans="1:3" ht="24" customHeight="1">
+      <c r="A214" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="24" customHeight="1">
+      <c r="B215" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="24" customHeight="1">
+      <c r="A217" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="24" customHeight="1">
+      <c r="A218" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="24" customHeight="1">
+      <c r="B219" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="178" customHeight="1">
+      <c r="B220" s="11"/>
+    </row>
+    <row r="222" spans="1:3" ht="24" customHeight="1">
+      <c r="A222" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="24" customHeight="1">
+      <c r="A223" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="24" customHeight="1">
+      <c r="B224" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="24" customHeight="1">
+      <c r="B225" s="11"/>
+    </row>
+    <row r="227" spans="1:3" ht="24" customHeight="1">
+      <c r="A227" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="24" customHeight="1">
+      <c r="A228" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="24" customHeight="1">
+      <c r="B229" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="24" customHeight="1">
+      <c r="B230" s="11"/>
+    </row>
+    <row r="232" spans="1:3" ht="24" customHeight="1">
+      <c r="A232" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="24" customHeight="1">
+      <c r="A233" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="24" customHeight="1">
+      <c r="B234" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="24" customHeight="1">
+      <c r="B235" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AD20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>AA24:AC24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AB51</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AB63</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+      <formula1>AA75:AB75</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AB79</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+      <formula1>AA92:AC92</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+      <formula1>AA96:AC96</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
+      <formula1>AA118:AB118</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
+      <formula1>AA126:AB126</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B130">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B154">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B170">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B178">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B202">
+      <formula1>AA202:AB202</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B206">
+      <formula1>AA206:AC206</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3533,21 +3499,21 @@
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3558,38 +3524,38 @@
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -3600,32 +3566,32 @@
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -3636,34 +3602,34 @@
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -3671,10 +3637,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3682,10 +3648,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -3693,10 +3659,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -3704,71 +3670,71 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
@@ -3779,35 +3745,35 @@
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
@@ -3818,82 +3784,82 @@
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3904,45 +3870,45 @@
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="24" customHeight="1">
@@ -3950,71 +3916,71 @@
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="24" customHeight="1">
       <c r="B85" s="11"/>
       <c r="AA85" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AE85" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="24" customHeight="1">
@@ -4025,38 +3991,38 @@
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="24" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="24" customHeight="1">
@@ -4067,58 +4033,58 @@
     <row r="99" spans="1:31" ht="24" customHeight="1">
       <c r="B99" s="11"/>
       <c r="AA99" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AB99" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AC99" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AD99" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AE99" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="24" customHeight="1">
       <c r="B103" s="11"/>
       <c r="AA103" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AB103" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AC103" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="24" customHeight="1">
@@ -4126,10 +4092,10 @@
         <v>38</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="24" customHeight="1">
@@ -4137,68 +4103,68 @@
     </row>
     <row r="109" spans="1:31" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="24" customHeight="1">
       <c r="B111" s="11"/>
       <c r="AA111" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AB111" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AC111" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AD111" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -4209,29 +4175,29 @@
     <row r="120" spans="1:28" ht="24" customHeight="1">
       <c r="B120" s="11"/>
       <c r="AA120" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
       <c r="A122" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="A123" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="24" customHeight="1">
@@ -4239,30 +4205,30 @@
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="24" customHeight="1">
       <c r="B128" s="11"/>
       <c r="AA128" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AB128" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_ocnbgchem.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Tracers" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="426">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -142,1156 +142,1165 @@
     <t>cmip6.ocnbgchem.key_properties.name</t>
   </si>
   <si>
+    <t>1.1.1.2 *</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Keywords associated with ocnbgchem model code</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.keywords</t>
+  </si>
+  <si>
+    <t>NOTE: Please enter a comma seperated list</t>
+  </si>
+  <si>
+    <t>1.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Overview of ocnbgchem model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.overview</t>
+  </si>
+  <si>
+    <t>NOTE: Double click to expand if text is too long for cell</t>
+  </si>
+  <si>
+    <t>1.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Model Type</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>Type of ocean biogeochemistry model</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.model_type</t>
+  </si>
+  <si>
+    <t>Geochemical</t>
+  </si>
+  <si>
+    <t>NPZD</t>
+  </si>
+  <si>
+    <t>PFT</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Elemental Stoichiometry</t>
+  </si>
+  <si>
+    <t>Describe elemental stoichiometry (fixed, variable, mix of the two)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.elemental_stoichiometry</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Mix of both</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Elemental Stoichiometry Details</t>
+  </si>
+  <si>
+    <t>Describe which elements have fixed/variable stoichiometry</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.elemental_stoichiometry_details</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Prognostic Variables</t>
+  </si>
+  <si>
+    <t>List of all prognostic tracer variables in the ocean biogeochemistry component</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.prognostic_variables</t>
+  </si>
+  <si>
+    <t>1.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Diagnostic Variables</t>
+  </si>
+  <si>
+    <t>List of all diagnotic tracer variables in the ocean biogeochemistry component (derived from prognostic variables</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.diagnostic_variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.9 </t>
+  </si>
+  <si>
+    <t>Damping</t>
+  </si>
+  <si>
+    <t>Describe any tracer damping used (such as artificial correction or relaxation to climatology,...)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.damping</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Time Stepping Framework --&gt; Passive Tracers Transport</t>
+  </si>
+  <si>
+    <t>Time stepping method for passive tracers transport in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>1.1.2.1 *</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Time stepping framework for passive tracers</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.passive_tracers_transport.method</t>
+  </si>
+  <si>
+    <t>Use ocean model transport time step</t>
+  </si>
+  <si>
+    <t>Use specific time step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2.2 </t>
+  </si>
+  <si>
+    <t>Timestep If Not From Ocean</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Time step for passive tracers (if different from ocean)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.passive_tracers_transport.timestep_if_not_from_ocean</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Time Stepping Framework --&gt; Biology Sources Sinks</t>
+  </si>
+  <si>
+    <t>Time stepping framework for biology sources and sinks in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>1.1.3.1 *</t>
+  </si>
+  <si>
+    <t>Time stepping framework for biology sources and sinks</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.biology_sources_sinks.method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3.2 </t>
+  </si>
+  <si>
+    <t>Time step for biology sources and sinks (if different from ocean)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.biology_sources_sinks.timestep_if_not_from_ocean</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Transport Scheme</t>
+  </si>
+  <si>
+    <t>Transport scheme in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>1.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type of transport scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.transport_scheme.type</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>1.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Transport scheme used</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.transport_scheme.scheme</t>
+  </si>
+  <si>
+    <t>Use that of ocean model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
+  </si>
+  <si>
+    <t>Use Different Scheme</t>
+  </si>
+  <si>
+    <t>Decribe transport scheme if different than that of ocean model</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.transport_scheme.use_different_scheme</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Boundary Forcing</t>
+  </si>
+  <si>
+    <t>Properties of biogeochemistry boundary forcing</t>
+  </si>
+  <si>
+    <t>1.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Deposition</t>
+  </si>
+  <si>
+    <t>Describe how atmospheric deposition is modeled</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.atmospheric_deposition</t>
+  </si>
+  <si>
+    <t>From file (climatology)</t>
+  </si>
+  <si>
+    <t>From file (interannual variations)</t>
+  </si>
+  <si>
+    <t>From Atmospheric Chemistry model</t>
+  </si>
+  <si>
+    <t>1.3.1.2 *</t>
+  </si>
+  <si>
+    <t>River Input</t>
+  </si>
+  <si>
+    <t>Describe how river input is modeled</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.river_input</t>
+  </si>
+  <si>
+    <t>From Land Surface model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.3 </t>
+  </si>
+  <si>
+    <t>Sediments From Boundary Conditions</t>
+  </si>
+  <si>
+    <t>List which sediments are speficied from boundary condition</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.sediments_from_boundary_conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1.4 </t>
+  </si>
+  <si>
+    <t>Sediments From Explicit Model</t>
+  </si>
+  <si>
+    <t>List which sediments are speficied from explicit sediment model</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.sediments_from_explicit_model</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Gas Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties of gas exchange in ocean biogeochemistry </t>
+  </si>
+  <si>
+    <t>1.4.1.1 *</t>
+  </si>
+  <si>
+    <t>CO2 Exchange Present</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Is CO2 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CO2_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.2 </t>
+  </si>
+  <si>
+    <t>CO2 Exchange Type</t>
+  </si>
+  <si>
+    <t>Describe CO2 gas exchange</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CO2_exchange_type</t>
+  </si>
+  <si>
+    <t>OMIP protocol</t>
+  </si>
+  <si>
+    <t>1.4.1.3 *</t>
+  </si>
+  <si>
+    <t>O2 Exchange Present</t>
+  </si>
+  <si>
+    <t>Is O2 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.O2_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.4 </t>
+  </si>
+  <si>
+    <t>O2 Exchange Type</t>
+  </si>
+  <si>
+    <t>Describe O2 gas exchange</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.O2_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.5 *</t>
+  </si>
+  <si>
+    <t>DMS Exchange Present</t>
+  </si>
+  <si>
+    <t>Is DMS gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.DMS_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.6 </t>
+  </si>
+  <si>
+    <t>DMS Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify DMS gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.DMS_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.7 *</t>
+  </si>
+  <si>
+    <t>N2 Exchange Present</t>
+  </si>
+  <si>
+    <t>Is N2 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.8 </t>
+  </si>
+  <si>
+    <t>N2 Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify N2 gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.9 *</t>
+  </si>
+  <si>
+    <t>N2O Exchange Present</t>
+  </si>
+  <si>
+    <t>Is N2O gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2O_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.10 </t>
+  </si>
+  <si>
+    <t>N2O Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify N2O gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2O_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.11 *</t>
+  </si>
+  <si>
+    <t>CFC11 Exchange Present</t>
+  </si>
+  <si>
+    <t>Is CFC11 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC11_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.12 </t>
+  </si>
+  <si>
+    <t>CFC11 Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify CFC11 gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC11_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.13 *</t>
+  </si>
+  <si>
+    <t>CFC12 Exchange Present</t>
+  </si>
+  <si>
+    <t>Is CFC12 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC12_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.14 </t>
+  </si>
+  <si>
+    <t>CFC12 Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify CFC12 gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC12_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.15 *</t>
+  </si>
+  <si>
+    <t>SF6 Exchange Present</t>
+  </si>
+  <si>
+    <t>Is SF6 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.SF6_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.16 </t>
+  </si>
+  <si>
+    <t>SF6 Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify SF6 gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.SF6_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.17 *</t>
+  </si>
+  <si>
+    <t>13CO2 Exchange Present</t>
+  </si>
+  <si>
+    <t>Is 13CO2 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.13CO2_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.18 </t>
+  </si>
+  <si>
+    <t>13CO2 Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify 13CO2 gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.13CO2_exchange_type</t>
+  </si>
+  <si>
+    <t>1.4.1.19 *</t>
+  </si>
+  <si>
+    <t>14CO2 Exchange Present</t>
+  </si>
+  <si>
+    <t>Is 14CO2 gas exchange modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.14CO2_exchange_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.20 </t>
+  </si>
+  <si>
+    <t>14CO2 Exchange Type</t>
+  </si>
+  <si>
+    <t>Specify 14CO2 gas exchange scheme type</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.14CO2_exchange_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.1.21 </t>
+  </si>
+  <si>
+    <t>Other Gases</t>
+  </si>
+  <si>
+    <t>Specify any other gas exchange</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.gas_exchange.other_gases</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Carbon Chemistry</t>
+  </si>
+  <si>
+    <t>Properties of carbon chemistry biogeochemistry</t>
+  </si>
+  <si>
+    <t>1.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Describe how carbon chemistry is modeled</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.carbon_chemistry.type</t>
+  </si>
+  <si>
+    <t>Other protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.2 </t>
+  </si>
+  <si>
+    <t>Ph Scale</t>
+  </si>
+  <si>
+    <t>If NOT OMIP protocol, describe pH scale.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.carbon_chemistry.ph_scale</t>
+  </si>
+  <si>
+    <t>Sea water</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5.1.3 </t>
+  </si>
+  <si>
+    <t>Constants If Not OMIP</t>
+  </si>
+  <si>
+    <t>If NOT OMIP protocol, list carbon chemistry constants.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.carbon_chemistry.constants_if_not_OMIP</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Tuning Applied</t>
+  </si>
+  <si>
+    <t>Tuning methodology for ocean biogeochemistry component</t>
+  </si>
+  <si>
+    <t>1.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>General overview description of tuning: explain and motivate the main targets and metrics retained. &amp;Document the relative weight given to climate performance metrics versus process oriented metrics, &amp;and on the possible conflicts with parameterization level tuning. In particular describe any struggle &amp;with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.tuning_applied.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.2 </t>
+  </si>
+  <si>
+    <t>Global Mean Metrics Used</t>
+  </si>
+  <si>
+    <t>List set of metrics of the global mean state used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.tuning_applied.global_mean_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.3 </t>
+  </si>
+  <si>
+    <t>Regional Metrics Used</t>
+  </si>
+  <si>
+    <t>List of regional metrics of mean state used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.tuning_applied.regional_metrics_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6.1.4 </t>
+  </si>
+  <si>
+    <t>Trend Metrics Used</t>
+  </si>
+  <si>
+    <t>List observed trend metrics used in tuning model/component</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.key_properties.tuning_applied.trend_metrics_used</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Tracers</t>
+  </si>
+  <si>
+    <t>Ocean biogeochemistry tracers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the tracers in ocnbgchem model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of ocean biogeochemistry tracers in ocnbgchem model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.overview</t>
+  </si>
+  <si>
+    <t>2.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Sulfur Cycle Present</t>
+  </si>
+  <si>
+    <t>Is sulfur cycle modeled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.sulfur_cycle_present</t>
+  </si>
+  <si>
+    <t>2.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Nutrients Present</t>
+  </si>
+  <si>
+    <t>List nutrient species present in ocean biogeochemistry model</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.nutrients_present</t>
+  </si>
+  <si>
+    <t>Nitrogen (N)</t>
+  </si>
+  <si>
+    <t>Phosphorous (P)</t>
+  </si>
+  <si>
+    <t>Silicon (S)</t>
+  </si>
+  <si>
+    <t>Iron (Fe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.5 </t>
+  </si>
+  <si>
+    <t>Nitrous Species If N</t>
+  </si>
+  <si>
+    <t>If nitrogen present, list nitrous species.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.nitrous_species_if_N</t>
+  </si>
+  <si>
+    <t>Nitrates (NO3)</t>
+  </si>
+  <si>
+    <t>Amonium (NH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1.6 </t>
+  </si>
+  <si>
+    <t>Nitrous Processes If N</t>
+  </si>
+  <si>
+    <t>If nitrogen present, list nitrous processes.</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.nitrous_processes_if_N</t>
+  </si>
+  <si>
+    <t>Dentrification</t>
+  </si>
+  <si>
+    <t>N fixation</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Tracers --&gt; Ecosystem</t>
+  </si>
+  <si>
+    <t>Ecosystem properties in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>2.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Upper Trophic Levels Definition</t>
+  </si>
+  <si>
+    <t>Describe how upper trophic levels are defined in model (e.g. based on size)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.ecosystem.upper_trophic_levels_definition</t>
+  </si>
+  <si>
+    <t>2.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Upper Trophic Levels Treatment</t>
+  </si>
+  <si>
+    <t>Describe how upper trophic levels are treated in model</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.ecosystem.upper_trophic_levels_treatment</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Tracers --&gt; Ecosystem --&gt; Phytoplankton</t>
+  </si>
+  <si>
+    <t>Phytoplankton properties in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>2.2.2.1 *</t>
+  </si>
+  <si>
+    <t>Type of phytoplankton</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.ecosystem.phytoplankton.type</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>PFT including size based (specify both below)</t>
+  </si>
+  <si>
+    <t>Size based only (specify below)</t>
+  </si>
+  <si>
+    <t>PFT only (specify below)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.2.2 </t>
+  </si>
+  <si>
+    <t>Pft</t>
+  </si>
+  <si>
+    <t>Phytoplankton functional types (PFT) (if applicable)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.ecosystem.phytoplankton.pft</t>
+  </si>
+  <si>
+    <t>Diatoms</t>
+  </si>
+  <si>
+    <t>Nfixers</t>
+  </si>
+  <si>
+    <t>Calcifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.2.3 </t>
+  </si>
+  <si>
+    <t>Size Classes</t>
+  </si>
+  <si>
+    <t>Phytoplankton size classes (if applicable)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.ecosystem.phytoplankton.size_classes</t>
+  </si>
+  <si>
+    <t>Microphytoplankton</t>
+  </si>
+  <si>
+    <t>Nanophytoplankton</t>
+  </si>
+  <si>
+    <t>Picophytoplankton</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>Tracers --&gt; Ecosystem --&gt; Zooplankton</t>
+  </si>
+  <si>
+    <t>Zooplankton properties in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>2.2.3.1 *</t>
+  </si>
+  <si>
+    <t>Type of zooplankton</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.ecosystem.zooplankton.type</t>
+  </si>
+  <si>
+    <t>Size based (specify below)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.3.2 </t>
+  </si>
+  <si>
+    <t>Zooplankton size classes (if applicable)</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.ecosystem.zooplankton.size_classes</t>
+  </si>
+  <si>
+    <t>Microzooplankton</t>
+  </si>
+  <si>
+    <t>Mesozooplankton</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Tracers --&gt; Disolved Organic Matter</t>
+  </si>
+  <si>
+    <t>Disolved organic matter properties in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>2.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Bacteria Present</t>
+  </si>
+  <si>
+    <t>Is there bacteria representation ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.disolved_organic_matter.bacteria_present</t>
+  </si>
+  <si>
+    <t>2.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Lability</t>
+  </si>
+  <si>
+    <t>Describe treatment of lability in dissolved organic matter</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.disolved_organic_matter.lability</t>
+  </si>
+  <si>
+    <t>Labile</t>
+  </si>
+  <si>
+    <t>Semi-labile</t>
+  </si>
+  <si>
+    <t>Refractory</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Tracers --&gt; Particules</t>
+  </si>
+  <si>
+    <t>Particulate carbon properties in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>2.4.1.1 *</t>
+  </si>
+  <si>
+    <t>How is particulate carbon represented in ocean biogeochemistry?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.particules.method</t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
+  </si>
+  <si>
+    <t>Diagnostic (Martin profile)</t>
+  </si>
+  <si>
+    <t>Diagnostic (Balast)</t>
+  </si>
+  <si>
+    <t>Prognostic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.1.2 </t>
+  </si>
+  <si>
+    <t>Types If Prognostic</t>
+  </si>
+  <si>
+    <t>If prognostic, type(s) of particulate matter taken into account</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.particules.types_if_prognostic</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>PIC (calcite)</t>
+  </si>
+  <si>
+    <t>PIC (aragonite</t>
+  </si>
+  <si>
+    <t>BSi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.1.3 </t>
+  </si>
+  <si>
+    <t>Size If Prognostic</t>
+  </si>
+  <si>
+    <t>If prognostic, describe if a particule size spectrum is used to represent distribution of particules in water volume</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.particules.size_if_prognostic</t>
+  </si>
+  <si>
+    <t>No size spectrum used</t>
+  </si>
+  <si>
+    <t>Full size spectrum</t>
+  </si>
+  <si>
+    <t>Discrete size classes (specify which below)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.1.4 </t>
+  </si>
+  <si>
+    <t>Size If Discrete</t>
+  </si>
+  <si>
+    <t>If prognostic and discrete size, describe which size classes are used</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.particules.size_if_discrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4.1.5 </t>
+  </si>
+  <si>
+    <t>Sinking Speed If Prognostic</t>
+  </si>
+  <si>
+    <t>If prognostic, method for calculation of sinking speed of particules</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.particules.sinking_speed_if_prognostic</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Function of particule size</t>
+  </si>
+  <si>
+    <t>Function of particule type (balast)</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>Tracers --&gt; Dic Alkalinity</t>
+  </si>
+  <si>
+    <t>DIC and alkalinity properties in ocean biogeochemistry</t>
+  </si>
+  <si>
+    <t>2.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Carbon Isotopes</t>
+  </si>
+  <si>
+    <t>Which carbon isotopes are modelled (C13, C14)?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.dic_alkalinity.carbon_isotopes</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14)</t>
+  </si>
+  <si>
+    <t>2.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Abiotic Carbon</t>
+  </si>
+  <si>
+    <t>Is abiotic carbon modelled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.dic_alkalinity.abiotic_carbon</t>
+  </si>
+  <si>
+    <t>2.5.1.3 *</t>
+  </si>
+  <si>
+    <t>Alkalinity</t>
+  </si>
+  <si>
+    <t>How is alkalinity modelled ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocnbgchem.tracers.dic_alkalinity.alkalinity</t>
+  </si>
+  <si>
+    <t>Diagnostic)</t>
+  </si>
+  <si>
     <t>HAMOCC6</t>
   </si>
   <si>
-    <t>1.1.1.2 *</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Keywords associated with ocnbgchem model code</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.keywords</t>
-  </si>
-  <si>
-    <t>NOTE: Please enter a comma seperated list</t>
-  </si>
-  <si>
-    <t>1.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Overview of ocnbgchem model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.overview</t>
-  </si>
-  <si>
-    <t>NOTE: Double click to expand if text is too long for cell</t>
+    <t>Mauritsen_2019</t>
+  </si>
+  <si>
+    <t>Ilyina_2013</t>
+  </si>
+  <si>
+    <t>Paulsen_2017</t>
   </si>
   <si>
     <t>For a description of the ocean biogeochemistry model HAMOCC6 see Mauritsen et al. (2019), Ilyina et al. (2013) and Paulsen et al. (2017).</t>
-  </si>
-  <si>
-    <t>1.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Model Type</t>
-  </si>
-  <si>
-    <t>ENUM</t>
-  </si>
-  <si>
-    <t>Type of ocean biogeochemistry model</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.model_type</t>
-  </si>
-  <si>
-    <t>Geochemical: No living compartments</t>
-  </si>
-  <si>
-    <t>NPZD: No plankton types</t>
-  </si>
-  <si>
-    <t>PFT: Several plankton types</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Elemental Stoichiometry</t>
-  </si>
-  <si>
-    <t>Describe elemental stoichiometry (fixed, variable, mix of the two)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.elemental_stoichiometry</t>
-  </si>
-  <si>
-    <t>Fixed: Fixed stoichiometry</t>
-  </si>
-  <si>
-    <t>Variable: Variable stoichiometry</t>
-  </si>
-  <si>
-    <t>Mix of both: Both fixed and mixed stoichiometry</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Elemental Stoichiometry Details</t>
-  </si>
-  <si>
-    <t>Describe which elements have fixed/variable stoichiometry</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.elemental_stoichiometry_details</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Prognostic Variables</t>
-  </si>
-  <si>
-    <t>List of all prognostic tracer variables in the ocean biogeochemistry component</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.prognostic_variables</t>
-  </si>
-  <si>
-    <t>1.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Diagnostic Variables</t>
-  </si>
-  <si>
-    <t>List of all diagnotic tracer variables in the ocean biogeochemistry component (derived from prognostic variables</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.diagnostic_variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.9 </t>
-  </si>
-  <si>
-    <t>Damping</t>
-  </si>
-  <si>
-    <t>Describe any tracer damping used (such as artificial correction or relaxation to climatology,...)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.damping</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Time Stepping Framework --&gt; Passive Tracers Transport</t>
-  </si>
-  <si>
-    <t>Time stepping method for passive tracers transport in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>1.1.2.1 *</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Time stepping framework for passive tracers</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.passive_tracers_transport.method</t>
-  </si>
-  <si>
-    <t>use ocean model transport time step</t>
-  </si>
-  <si>
-    <t>use specific time step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2.2 </t>
-  </si>
-  <si>
-    <t>Timestep If Not From Ocean</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>Time step for passive tracers (if different from ocean)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.passive_tracers_transport.timestep_if_not_from_ocean</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Time Stepping Framework --&gt; Biology Sources Sinks</t>
-  </si>
-  <si>
-    <t>Time stepping framework for biology sources and sinks in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>1.1.3.1 *</t>
-  </si>
-  <si>
-    <t>Time stepping framework for biology sources and sinks</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.biology_sources_sinks.method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3.2 </t>
-  </si>
-  <si>
-    <t>Time step for biology sources and sinks (if different from ocean)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.time_stepping_framework.biology_sources_sinks.timestep_if_not_from_ocean</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Transport Scheme</t>
-  </si>
-  <si>
-    <t>Transport scheme in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>1.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Type of transport scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.transport_scheme.type</t>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>1.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>Transport scheme used</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.transport_scheme.scheme</t>
-  </si>
-  <si>
-    <t>Use that of ocean model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
-    <t>Use Different Scheme</t>
-  </si>
-  <si>
-    <t>Decribe transport scheme if different than that of ocean model</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.transport_scheme.use_different_scheme</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Boundary Forcing</t>
-  </si>
-  <si>
-    <t>Properties of biogeochemistry boundary forcing</t>
-  </si>
-  <si>
-    <t>1.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Deposition</t>
-  </si>
-  <si>
-    <t>Describe how atmospheric deposition is modeled</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.atmospheric_deposition</t>
-  </si>
-  <si>
-    <t>from file (climatology)</t>
-  </si>
-  <si>
-    <t>from file (interannual variations)</t>
-  </si>
-  <si>
-    <t>from Atmospheric Chemistry model</t>
-  </si>
-  <si>
-    <t>1.3.1.2 *</t>
-  </si>
-  <si>
-    <t>River Input</t>
-  </si>
-  <si>
-    <t>Describe how river input is modeled</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.river_input</t>
-  </si>
-  <si>
-    <t>from Land Surface model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.3 </t>
-  </si>
-  <si>
-    <t>Sediments From Boundary Conditions</t>
-  </si>
-  <si>
-    <t>List which sediments are speficied from boundary condition</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.sediments_from_boundary_conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1.4 </t>
-  </si>
-  <si>
-    <t>Sediments From Explicit Model</t>
-  </si>
-  <si>
-    <t>List which sediments are speficied from explicit sediment model</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.boundary_forcing.sediments_from_explicit_model</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Gas Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properties of gas exchange in ocean biogeochemistry </t>
-  </si>
-  <si>
-    <t>1.4.1.1 *</t>
-  </si>
-  <si>
-    <t>CO2 Exchange Present</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>Is CO2 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CO2_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.2 </t>
-  </si>
-  <si>
-    <t>CO2 Exchange Type</t>
-  </si>
-  <si>
-    <t>Describe CO2 gas exchange</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CO2_exchange_type</t>
-  </si>
-  <si>
-    <t>OMIP protocol</t>
-  </si>
-  <si>
-    <t>1.4.1.3 *</t>
-  </si>
-  <si>
-    <t>O2 Exchange Present</t>
-  </si>
-  <si>
-    <t>Is O2 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.O2_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.4 </t>
-  </si>
-  <si>
-    <t>O2 Exchange Type</t>
-  </si>
-  <si>
-    <t>Describe O2 gas exchange</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.O2_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.5 *</t>
-  </si>
-  <si>
-    <t>DMS Exchange Present</t>
-  </si>
-  <si>
-    <t>Is DMS gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.DMS_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.6 </t>
-  </si>
-  <si>
-    <t>DMS Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify DMS gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.DMS_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.7 *</t>
-  </si>
-  <si>
-    <t>N2 Exchange Present</t>
-  </si>
-  <si>
-    <t>Is N2 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.8 </t>
-  </si>
-  <si>
-    <t>N2 Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify N2 gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.9 *</t>
-  </si>
-  <si>
-    <t>N2O Exchange Present</t>
-  </si>
-  <si>
-    <t>Is N2O gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2O_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.10 </t>
-  </si>
-  <si>
-    <t>N2O Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify N2O gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.N2O_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.11 *</t>
-  </si>
-  <si>
-    <t>CFC11 Exchange Present</t>
-  </si>
-  <si>
-    <t>Is CFC11 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC11_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.12 </t>
-  </si>
-  <si>
-    <t>CFC11 Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify CFC11 gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC11_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.13 *</t>
-  </si>
-  <si>
-    <t>CFC12 Exchange Present</t>
-  </si>
-  <si>
-    <t>Is CFC12 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC12_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.14 </t>
-  </si>
-  <si>
-    <t>CFC12 Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify CFC12 gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.CFC12_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.15 *</t>
-  </si>
-  <si>
-    <t>SF6 Exchange Present</t>
-  </si>
-  <si>
-    <t>Is SF6 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.SF6_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.16 </t>
-  </si>
-  <si>
-    <t>SF6 Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify SF6 gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.SF6_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.17 *</t>
-  </si>
-  <si>
-    <t>13CO2 Exchange Present</t>
-  </si>
-  <si>
-    <t>Is 13CO2 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.13CO2_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.18 </t>
-  </si>
-  <si>
-    <t>13CO2 Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify 13CO2 gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.13CO2_exchange_type</t>
-  </si>
-  <si>
-    <t>1.4.1.19 *</t>
-  </si>
-  <si>
-    <t>14CO2 Exchange Present</t>
-  </si>
-  <si>
-    <t>Is 14CO2 gas exchange modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.14CO2_exchange_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.20 </t>
-  </si>
-  <si>
-    <t>14CO2 Exchange Type</t>
-  </si>
-  <si>
-    <t>Specify 14CO2 gas exchange scheme type</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.14CO2_exchange_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.1.21 </t>
-  </si>
-  <si>
-    <t>Other Gases</t>
-  </si>
-  <si>
-    <t>Specify any other gas exchange</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.gas_exchange.other_gases</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Carbon Chemistry</t>
-  </si>
-  <si>
-    <t>Properties of carbon chemistry biogeochemistry</t>
-  </si>
-  <si>
-    <t>1.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Describe how carbon chemistry is modeled</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.carbon_chemistry.type</t>
-  </si>
-  <si>
-    <t>Other protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.2 </t>
-  </si>
-  <si>
-    <t>Ph Scale</t>
-  </si>
-  <si>
-    <t>If NOT OMIP protocol, describe pH scale.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.carbon_chemistry.ph_scale</t>
-  </si>
-  <si>
-    <t>Sea water</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5.1.3 </t>
-  </si>
-  <si>
-    <t>Constants If Not OMIP</t>
-  </si>
-  <si>
-    <t>If NOT OMIP protocol, list carbon chemistry constants.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.carbon_chemistry.constants_if_not_OMIP</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Tuning Applied</t>
-  </si>
-  <si>
-    <t>Tuning methodology for ocean biogeochemistry component</t>
-  </si>
-  <si>
-    <t>1.6.1.1 *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>General overview description of tuning: explain and motivate the main targets and metrics retained. &amp;Document the relative weight given to climate performance metrics versus process oriented metrics, &amp;and on the possible conflicts with parameterization level tuning. In particular describe any struggle &amp;with a parameter value that required pushing it to its limits to solve a particular model deficiency.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.tuning_applied.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.2 </t>
-  </si>
-  <si>
-    <t>Global Mean Metrics Used</t>
-  </si>
-  <si>
-    <t>List set of metrics of the global mean state used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.tuning_applied.global_mean_metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.3 </t>
-  </si>
-  <si>
-    <t>Regional Metrics Used</t>
-  </si>
-  <si>
-    <t>List of regional metrics of mean state used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.tuning_applied.regional_metrics_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6.1.4 </t>
-  </si>
-  <si>
-    <t>Trend Metrics Used</t>
-  </si>
-  <si>
-    <t>List observed trend metrics used in tuning model/component</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.key_properties.tuning_applied.trend_metrics_used</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Tracers</t>
-  </si>
-  <si>
-    <t>Ocean biogeochemistry tracers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the tracers in ocnbgchem model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of ocean biogeochemistry tracers in ocnbgchem model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.overview</t>
-  </si>
-  <si>
-    <t>2.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Sulfur Cycle Present</t>
-  </si>
-  <si>
-    <t>Is sulfur cycle modeled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.sulfur_cycle_present</t>
-  </si>
-  <si>
-    <t>2.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Nutrients Present</t>
-  </si>
-  <si>
-    <t>List nutrient species present in ocean biogeochemistry model</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.nutrients_present</t>
-  </si>
-  <si>
-    <t>Nitrogen (N)</t>
-  </si>
-  <si>
-    <t>Phosphorous (P)</t>
-  </si>
-  <si>
-    <t>Silicon (S)</t>
-  </si>
-  <si>
-    <t>Iron (Fe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.5 </t>
-  </si>
-  <si>
-    <t>Nitrous Species If N</t>
-  </si>
-  <si>
-    <t>If nitrogen present, list nitrous species.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.nitrous_species_if_N</t>
-  </si>
-  <si>
-    <t>Nitrates (NO3)</t>
-  </si>
-  <si>
-    <t>Amonium (NH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.1.6 </t>
-  </si>
-  <si>
-    <t>Nitrous Processes If N</t>
-  </si>
-  <si>
-    <t>If nitrogen present, list nitrous processes.</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.nitrous_processes_if_N</t>
-  </si>
-  <si>
-    <t>Dentrification</t>
-  </si>
-  <si>
-    <t>N fixation</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Tracers --&gt; Ecosystem</t>
-  </si>
-  <si>
-    <t>Ecosystem properties in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>2.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Upper Trophic Levels Definition</t>
-  </si>
-  <si>
-    <t>Describe how upper trophic levels are defined in model (e.g. based on size)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.ecosystem.upper_trophic_levels_definition</t>
-  </si>
-  <si>
-    <t>2.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Upper Trophic Levels Treatment</t>
-  </si>
-  <si>
-    <t>Describe how upper trophic levels are treated in model</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.ecosystem.upper_trophic_levels_treatment</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>Tracers --&gt; Ecosystem --&gt; Phytoplankton</t>
-  </si>
-  <si>
-    <t>Phytoplankton properties in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>2.2.2.1 *</t>
-  </si>
-  <si>
-    <t>Type of phytoplankton</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.ecosystem.phytoplankton.type</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>PFT including size based (specify both below): Plankton functional type including size based</t>
-  </si>
-  <si>
-    <t>Size based only (specify below)</t>
-  </si>
-  <si>
-    <t>PFT only (specify below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.2.2 </t>
-  </si>
-  <si>
-    <t>Pft</t>
-  </si>
-  <si>
-    <t>Phytoplankton functional types (PFT) (if applicable)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.ecosystem.phytoplankton.pft</t>
-  </si>
-  <si>
-    <t>Diatoms</t>
-  </si>
-  <si>
-    <t>Nfixers</t>
-  </si>
-  <si>
-    <t>Calcifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.2.3 </t>
-  </si>
-  <si>
-    <t>Size Classes</t>
-  </si>
-  <si>
-    <t>Phytoplankton size classes (if applicable)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.ecosystem.phytoplankton.size_classes</t>
-  </si>
-  <si>
-    <t>Microphytoplankton</t>
-  </si>
-  <si>
-    <t>Nanophytoplankton</t>
-  </si>
-  <si>
-    <t>Picophytoplankton</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>Tracers --&gt; Ecosystem --&gt; Zooplankton</t>
-  </si>
-  <si>
-    <t>Zooplankton properties in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>2.2.3.1 *</t>
-  </si>
-  <si>
-    <t>Type of zooplankton</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.ecosystem.zooplankton.type</t>
-  </si>
-  <si>
-    <t>Size based (specify below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.3.2 </t>
-  </si>
-  <si>
-    <t>Zooplankton size classes (if applicable)</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.ecosystem.zooplankton.size_classes</t>
-  </si>
-  <si>
-    <t>Microzooplankton</t>
-  </si>
-  <si>
-    <t>Mesozooplankton</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>Tracers --&gt; Disolved Organic Matter</t>
-  </si>
-  <si>
-    <t>Disolved organic matter properties in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>2.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Bacteria Present</t>
-  </si>
-  <si>
-    <t>Is there bacteria representation ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.disolved_organic_matter.bacteria_present</t>
-  </si>
-  <si>
-    <t>2.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Lability</t>
-  </si>
-  <si>
-    <t>Describe treatment of lability in dissolved organic matter</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.disolved_organic_matter.lability</t>
-  </si>
-  <si>
-    <t>Labile: Less than a few days</t>
-  </si>
-  <si>
-    <t>Semi-labile: Few days to a few years</t>
-  </si>
-  <si>
-    <t>Refractory: Over a few years</t>
-  </si>
-  <si>
-    <t>2.4.1</t>
-  </si>
-  <si>
-    <t>Tracers --&gt; Particules</t>
-  </si>
-  <si>
-    <t>Particulate carbon properties in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>2.4.1.1 *</t>
-  </si>
-  <si>
-    <t>How is particulate carbon represented in ocean biogeochemistry?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.particules.method</t>
-  </si>
-  <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
-    <t>Diagnostic (Martin profile)</t>
-  </si>
-  <si>
-    <t>Diagnostic (Balast)</t>
-  </si>
-  <si>
-    <t>Prognostic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.1.2 </t>
-  </si>
-  <si>
-    <t>Types If Prognostic</t>
-  </si>
-  <si>
-    <t>If prognostic, type(s) of particulate matter taken into account</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.particules.types_if_prognostic</t>
-  </si>
-  <si>
-    <t>POC</t>
-  </si>
-  <si>
-    <t>PIC (calcite)</t>
-  </si>
-  <si>
-    <t>PIC (aragonite</t>
-  </si>
-  <si>
-    <t>BSi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.1.3 </t>
-  </si>
-  <si>
-    <t>Size If Prognostic</t>
-  </si>
-  <si>
-    <t>If prognostic, describe if a particule size spectrum is used to represent distribution of particules in water volume</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.particules.size_if_prognostic</t>
-  </si>
-  <si>
-    <t>No size spectrum used</t>
-  </si>
-  <si>
-    <t>Full size spectrum</t>
-  </si>
-  <si>
-    <t>Discrete size classes (specify which below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.1.4 </t>
-  </si>
-  <si>
-    <t>Size If Discrete</t>
-  </si>
-  <si>
-    <t>If prognostic and discrete size, describe which size classes are used</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.particules.size_if_discrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.1.5 </t>
-  </si>
-  <si>
-    <t>Sinking Speed If Prognostic</t>
-  </si>
-  <si>
-    <t>If prognostic, method for calculation of sinking speed of particules</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.particules.sinking_speed_if_prognostic</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Function of particule size</t>
-  </si>
-  <si>
-    <t>Function of particule type (balast)</t>
-  </si>
-  <si>
-    <t>2.5.1</t>
-  </si>
-  <si>
-    <t>Tracers --&gt; Dic Alkalinity</t>
-  </si>
-  <si>
-    <t>DIC and alkalinity properties in ocean biogeochemistry</t>
-  </si>
-  <si>
-    <t>2.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Carbon Isotopes</t>
-  </si>
-  <si>
-    <t>Which carbon isotopes are modelled (C13, C14)?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.dic_alkalinity.carbon_isotopes</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14)</t>
-  </si>
-  <si>
-    <t>2.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Abiotic Carbon</t>
-  </si>
-  <si>
-    <t>Is abiotic carbon modelled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.dic_alkalinity.abiotic_carbon</t>
-  </si>
-  <si>
-    <t>2.5.1.3 *</t>
-  </si>
-  <si>
-    <t>Alkalinity</t>
-  </si>
-  <si>
-    <t>How is alkalinity modelled ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocnbgchem.tracers.dic_alkalinity.alkalinity</t>
-  </si>
-  <si>
-    <t>Diagnostic)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1488,6 +1497,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1566,6 +1580,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1600,6 +1615,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1775,10 +1791,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1787,12 +1803,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,7 +1824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1832,12 +1848,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1861,7 +1877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1869,13 +1885,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1891,10 +1907,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1903,7 +1921,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1938,11 +1956,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1958,7 +1976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1966,16 +1984,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19">
       <formula1>"Top Level,Key Properties,Tracers"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1988,10 +2020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD235"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2035,15 +2069,15 @@
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>41</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2051,15 +2085,15 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -2067,10 +2101,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2078,93 +2112,93 @@
         <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC24" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -2172,15 +2206,15 @@
         <v>38</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -2188,10 +2222,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -2199,15 +2233,15 @@
         <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -2215,10 +2249,10 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -2226,15 +2260,15 @@
         <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -2242,10 +2276,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -2253,10 +2287,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -2264,62 +2298,62 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
@@ -2327,62 +2361,62 @@
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="24" customHeight="1">
@@ -2390,79 +2424,79 @@
     </row>
     <row r="70" spans="1:28" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="24" customHeight="1">
@@ -2470,101 +2504,101 @@
         <v>38</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
       <c r="B83" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="178" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="177.95" customHeight="1">
       <c r="B84" s="11"/>
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
       <c r="B88" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="24" customHeight="1">
       <c r="A91" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="24" customHeight="1">
       <c r="B92" s="11"/>
       <c r="AA92" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB92" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC92" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="AB92" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC92" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:29" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:29" ht="24" customHeight="1">
       <c r="A95" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="24" customHeight="1">
       <c r="B96" s="11"/>
       <c r="AA96" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -2572,15 +2606,15 @@
         <v>38</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -2588,10 +2622,10 @@
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -2599,15 +2633,15 @@
         <v>38</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -2615,34 +2649,34 @@
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
@@ -2650,49 +2684,49 @@
     </row>
     <row r="116" spans="1:28" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="B118" s="11"/>
       <c r="AA118" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -2700,49 +2734,49 @@
     </row>
     <row r="124" spans="1:28" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
       <c r="B126" s="11"/>
       <c r="AA126" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB126" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -2750,10 +2784,10 @@
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -2761,10 +2795,10 @@
         <v>38</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -2772,21 +2806,21 @@
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="A136" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -2794,10 +2828,10 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
@@ -2805,10 +2839,10 @@
         <v>38</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -2816,21 +2850,21 @@
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
@@ -2838,10 +2872,10 @@
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -2849,10 +2883,10 @@
         <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
@@ -2860,21 +2894,21 @@
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -2882,10 +2916,10 @@
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -2893,10 +2927,10 @@
         <v>38</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -2904,21 +2938,21 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -2926,10 +2960,10 @@
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -2937,10 +2971,10 @@
         <v>38</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -2948,21 +2982,21 @@
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="A169" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
@@ -2970,10 +3004,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -2981,10 +3015,10 @@
         <v>38</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -2992,21 +3026,21 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="24" customHeight="1">
       <c r="A177" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
@@ -3014,10 +3048,10 @@
     </row>
     <row r="180" spans="1:3" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="24" customHeight="1">
@@ -3025,10 +3059,10 @@
         <v>38</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="24" customHeight="1">
@@ -3036,21 +3070,21 @@
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="24" customHeight="1">
@@ -3058,10 +3092,10 @@
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
@@ -3069,10 +3103,10 @@
         <v>38</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="24" customHeight="1">
@@ -3080,10 +3114,10 @@
     </row>
     <row r="192" spans="1:3" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="1:29" ht="24" customHeight="1">
@@ -3091,10 +3125,10 @@
         <v>38</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:29" ht="24" customHeight="1">
@@ -3102,82 +3136,82 @@
     </row>
     <row r="197" spans="1:29" ht="24" customHeight="1">
       <c r="A197" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:29" ht="24" customHeight="1">
       <c r="B198" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="1:29" ht="24" customHeight="1">
       <c r="A200" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="1:29" ht="24" customHeight="1">
       <c r="A201" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:29" ht="24" customHeight="1">
       <c r="B202" s="11"/>
       <c r="AA202" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB202" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" spans="1:29" ht="24" customHeight="1">
       <c r="A204" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="1:29" ht="24" customHeight="1">
       <c r="A205" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:29" ht="24" customHeight="1">
       <c r="B206" s="11"/>
       <c r="AA206" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB206" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC206" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:29" ht="24" customHeight="1">
       <c r="A208" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
@@ -3185,15 +3219,15 @@
         <v>38</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" customHeight="1">
       <c r="B210" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="24" customHeight="1">
@@ -3201,23 +3235,23 @@
     </row>
     <row r="214" spans="1:3" ht="24" customHeight="1">
       <c r="A214" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="24" customHeight="1">
       <c r="B215" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="24" customHeight="1">
       <c r="A217" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
@@ -3225,26 +3259,26 @@
         <v>38</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="24" customHeight="1">
       <c r="B219" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="178" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="177.95" customHeight="1">
       <c r="B220" s="11"/>
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
       <c r="A222" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="24" customHeight="1">
@@ -3252,15 +3286,15 @@
         <v>38</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="24" customHeight="1">
       <c r="B224" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="24" customHeight="1">
@@ -3268,10 +3302,10 @@
     </row>
     <row r="227" spans="1:3" ht="24" customHeight="1">
       <c r="A227" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="24" customHeight="1">
@@ -3279,15 +3313,15 @@
         <v>38</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="24" customHeight="1">
       <c r="B229" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="24" customHeight="1">
@@ -3295,10 +3329,10 @@
     </row>
     <row r="232" spans="1:3" ht="24" customHeight="1">
       <c r="A232" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="24" customHeight="1">
@@ -3306,15 +3340,15 @@
         <v>38</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="24" customHeight="1">
       <c r="B234" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="24" customHeight="1">
@@ -3400,8 +3434,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3415,20 +3449,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>37</v>
@@ -3439,10 +3473,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3450,10 +3484,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3461,37 +3495,37 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3499,21 +3533,21 @@
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3524,38 +3558,38 @@
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="AC20" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="AE20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -3566,32 +3600,32 @@
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -3602,34 +3636,34 @@
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -3637,10 +3671,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3648,10 +3682,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -3659,10 +3693,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -3670,71 +3704,71 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC50" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AB50" s="6" t="s">
+      <c r="AD50" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AC50" s="6" t="s">
+      <c r="AE50" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="AD50" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE50" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
@@ -3745,35 +3779,35 @@
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC55" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AB55" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC55" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="AD55" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
@@ -3784,82 +3818,82 @@
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC60" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AB60" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC60" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="AD60" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3870,45 +3904,45 @@
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="24" customHeight="1">
@@ -3916,71 +3950,71 @@
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="24" customHeight="1">
       <c r="B85" s="11"/>
       <c r="AA85" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AB85" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC85" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD85" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AC85" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD85" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="AE85" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="24" customHeight="1">
@@ -3991,38 +4025,38 @@
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB94" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC94" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="AB94" s="6" t="s">
+      <c r="AD94" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="AC94" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD94" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="AE94" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="24" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="24" customHeight="1">
@@ -4033,58 +4067,58 @@
     <row r="99" spans="1:31" ht="24" customHeight="1">
       <c r="B99" s="11"/>
       <c r="AA99" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB99" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC99" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="AB99" s="6" t="s">
+      <c r="AD99" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="AC99" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD99" s="6" t="s">
-        <v>386</v>
-      </c>
       <c r="AE99" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="24" customHeight="1">
       <c r="B103" s="11"/>
       <c r="AA103" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB103" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC103" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="AB103" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC103" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="24" customHeight="1">
@@ -4092,10 +4126,10 @@
         <v>38</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="24" customHeight="1">
@@ -4103,68 +4137,68 @@
     </row>
     <row r="109" spans="1:31" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="24" customHeight="1">
       <c r="B111" s="11"/>
       <c r="AA111" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB111" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC111" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="AB111" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="AC111" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="AD111" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -4175,29 +4209,29 @@
     <row r="120" spans="1:28" ht="24" customHeight="1">
       <c r="B120" s="11"/>
       <c r="AA120" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
       <c r="A122" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="A123" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="24" customHeight="1">
@@ -4205,30 +4239,30 @@
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="24" customHeight="1">
       <c r="B128" s="11"/>
       <c r="AA128" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AB128" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
